--- a/result/ck_final.xlsx
+++ b/result/ck_final.xlsx
@@ -160,19 +160,19 @@
     <t>WSS</t>
   </si>
   <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
     <t>D</t>
   </si>
   <si>
-    <t>C</t>
-  </si>
-  <si>
     <t>F</t>
   </si>
   <si>
     <t>A</t>
-  </si>
-  <si>
-    <t>E</t>
   </si>
   <si>
     <t>B</t>
@@ -591,19 +591,19 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J2" t="s">
         <v>48</v>
@@ -623,22 +623,22 @@
         <v>2</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J3" t="s">
         <v>49</v>
@@ -676,7 +676,7 @@
         <v>2</v>
       </c>
       <c r="J4" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K4" t="s">
         <v>54</v>
@@ -711,7 +711,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K5" t="s">
         <v>54</v>
@@ -728,25 +728,25 @@
         <v>2</v>
       </c>
       <c r="D6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6">
         <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K6" t="s">
         <v>54</v>
@@ -781,7 +781,7 @@
         <v>1</v>
       </c>
       <c r="J7" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="K7" t="s">
         <v>54</v>
@@ -798,22 +798,22 @@
         <v>2</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J8" t="s">
         <v>52</v>
@@ -833,7 +833,7 @@
         <v>2</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -842,16 +842,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J9" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K9" t="s">
         <v>54</v>
@@ -868,25 +868,25 @@
         <v>2</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10">
         <v>1</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="H10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J10" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="K10" t="s">
         <v>54</v>
@@ -906,7 +906,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F11">
         <v>1</v>
@@ -918,10 +918,10 @@
         <v>1</v>
       </c>
       <c r="I11">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J11" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="K11" t="s">
         <v>54</v>
@@ -941,7 +941,7 @@
         <v>0</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F12">
         <v>1</v>
@@ -953,10 +953,10 @@
         <v>1</v>
       </c>
       <c r="I12">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J12" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="K12" t="s">
         <v>54</v>
@@ -991,7 +991,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K13" t="s">
         <v>54</v>
@@ -1014,7 +1014,7 @@
         <v>1</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -1023,10 +1023,10 @@
         <v>1</v>
       </c>
       <c r="I14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J14" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K14" t="s">
         <v>54</v>
@@ -1061,7 +1061,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K15" t="s">
         <v>54</v>
@@ -1078,7 +1078,7 @@
         <v>2</v>
       </c>
       <c r="D16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E16">
         <v>1</v>
@@ -1087,16 +1087,16 @@
         <v>0</v>
       </c>
       <c r="G16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J16" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K16" t="s">
         <v>54</v>
@@ -1113,7 +1113,7 @@
         <v>2</v>
       </c>
       <c r="D17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1128,10 +1128,10 @@
         <v>1</v>
       </c>
       <c r="I17">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J17" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="K17" t="s">
         <v>54</v>
@@ -1154,7 +1154,7 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1163,10 +1163,10 @@
         <v>1</v>
       </c>
       <c r="I18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J18" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K18" t="s">
         <v>54</v>
@@ -1201,7 +1201,7 @@
         <v>2</v>
       </c>
       <c r="J19" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K19" t="s">
         <v>54</v>
@@ -1224,7 +1224,7 @@
         <v>0</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -1233,10 +1233,10 @@
         <v>1</v>
       </c>
       <c r="I20">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J20" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K20" t="s">
         <v>54</v>
@@ -1259,10 +1259,10 @@
         <v>1</v>
       </c>
       <c r="F21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1271,7 +1271,7 @@
         <v>3</v>
       </c>
       <c r="J21" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K21" t="s">
         <v>54</v>
@@ -1291,13 +1291,13 @@
         <v>0</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>1</v>
       </c>
       <c r="J22" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="K22" t="s">
         <v>54</v>
@@ -1329,7 +1329,7 @@
         <v>0</v>
       </c>
       <c r="F23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -1338,10 +1338,10 @@
         <v>1</v>
       </c>
       <c r="I23">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J23" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K23" t="s">
         <v>54</v>
@@ -1364,7 +1364,7 @@
         <v>1</v>
       </c>
       <c r="F24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1373,10 +1373,10 @@
         <v>1</v>
       </c>
       <c r="I24">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J24" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K24" t="s">
         <v>54</v>
@@ -1396,19 +1396,19 @@
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J25" t="s">
         <v>49</v>
@@ -1431,7 +1431,7 @@
         <v>1</v>
       </c>
       <c r="E26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F26">
         <v>1</v>
@@ -1443,10 +1443,10 @@
         <v>1</v>
       </c>
       <c r="I26">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J26" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K26" t="s">
         <v>54</v>
@@ -1475,13 +1475,13 @@
         <v>1</v>
       </c>
       <c r="H27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I27">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J27" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K27" t="s">
         <v>54</v>
@@ -1516,7 +1516,7 @@
         <v>1</v>
       </c>
       <c r="J28" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="K28" t="s">
         <v>54</v>
@@ -1536,7 +1536,7 @@
         <v>1</v>
       </c>
       <c r="E29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F29">
         <v>0</v>
@@ -1545,13 +1545,13 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I29">
         <v>2</v>
       </c>
       <c r="J29" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K29" t="s">
         <v>54</v>
@@ -1574,7 +1574,7 @@
         <v>0</v>
       </c>
       <c r="F30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G30">
         <v>1</v>
@@ -1583,10 +1583,10 @@
         <v>1</v>
       </c>
       <c r="I30">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J30" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K30" t="s">
         <v>54</v>
@@ -1612,10 +1612,10 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I31">
         <v>4</v>
@@ -1641,7 +1641,7 @@
         <v>0</v>
       </c>
       <c r="E32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F32">
         <v>0</v>
@@ -1653,10 +1653,10 @@
         <v>0</v>
       </c>
       <c r="I32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J32" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K32" t="s">
         <v>54</v>
@@ -1685,13 +1685,13 @@
         <v>1</v>
       </c>
       <c r="H33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I33">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J33" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K33" t="s">
         <v>54</v>
@@ -1726,7 +1726,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K34" t="s">
         <v>54</v>
@@ -1743,7 +1743,7 @@
         <v>2</v>
       </c>
       <c r="D35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -1758,10 +1758,10 @@
         <v>1</v>
       </c>
       <c r="I35">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J35" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="K35" t="s">
         <v>54</v>
@@ -1778,25 +1778,25 @@
         <v>2</v>
       </c>
       <c r="D36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E36">
         <v>0</v>
       </c>
       <c r="F36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H36">
         <v>1</v>
       </c>
       <c r="I36">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J36" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K36" t="s">
         <v>54</v>
@@ -1813,25 +1813,25 @@
         <v>2</v>
       </c>
       <c r="D37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F37">
         <v>0</v>
       </c>
       <c r="G37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H37">
         <v>0</v>
       </c>
       <c r="I37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J37" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K37" t="s">
         <v>54</v>
@@ -1866,7 +1866,7 @@
         <v>3</v>
       </c>
       <c r="J38" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K38" t="s">
         <v>54</v>
